--- a/MainTop/13.02.2026 Макс ВБ/print_print_sorted.xlsx
+++ b/MainTop/13.02.2026 Макс ВБ/print_print_sorted.xlsx
@@ -5,22 +5,33 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\13.02.2026 Макс ВБ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\Documents\GitHub\Ozon_upload\MainTop\13.02.2026 Макс ВБ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77975773-D625-4A84-A1F3-FDFA7EA9AFCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C967D4A2-50F3-4740-B41F-5CAD981FA6E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="88">
   <si>
     <t>Артикул</t>
   </si>
@@ -281,6 +292,9 @@
   </si>
   <si>
     <t>Термобирки Транспорт</t>
+  </si>
+  <si>
+    <t>на 4 города</t>
   </si>
 </sst>
 </file>
@@ -354,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -362,6 +376,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -664,19 +682,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H76"/>
+  <dimension ref="A1:J76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+      <selection activeCell="Z11" sqref="Z11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.28515625" customWidth="1"/>
+    <col min="2" max="2" width="0.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="0.28515625" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="5.85546875" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -701,8 +724,12 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="5"/>
+      <c r="J1" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -727,8 +754,13 @@
       <c r="H2" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="5"/>
+      <c r="J2" s="5">
+        <f>F2/4</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -753,8 +785,13 @@
       <c r="H3" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="5"/>
+      <c r="J3" s="5">
+        <f t="shared" ref="J3:J66" si="0">F3/4</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -779,8 +816,13 @@
       <c r="H4" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="5"/>
+      <c r="J4" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -805,8 +847,13 @@
       <c r="H5" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="5"/>
+      <c r="J5" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -831,8 +878,13 @@
       <c r="H6" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="5"/>
+      <c r="J6" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -857,8 +909,13 @@
       <c r="H7" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="5"/>
+      <c r="J7" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -883,8 +940,13 @@
       <c r="H8" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="5"/>
+      <c r="J8" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -909,8 +971,13 @@
       <c r="H9" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="5"/>
+      <c r="J9" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -935,8 +1002,13 @@
       <c r="H10" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" s="5"/>
+      <c r="J10" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
@@ -961,8 +1033,13 @@
       <c r="H11" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" s="5"/>
+      <c r="J11" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -987,8 +1064,13 @@
       <c r="H12" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" s="5"/>
+      <c r="J12" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
@@ -1013,8 +1095,13 @@
       <c r="H13" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" s="5"/>
+      <c r="J13" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
@@ -1039,8 +1126,13 @@
       <c r="H14" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" s="5"/>
+      <c r="J14" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
@@ -1065,8 +1157,13 @@
       <c r="H15" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15" s="5"/>
+      <c r="J15" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>24</v>
       </c>
@@ -1091,8 +1188,13 @@
       <c r="H16" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" s="5"/>
+      <c r="J16" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>25</v>
       </c>
@@ -1117,8 +1219,13 @@
       <c r="H17" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" s="5"/>
+      <c r="J17" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>26</v>
       </c>
@@ -1143,8 +1250,13 @@
       <c r="H18" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" s="5"/>
+      <c r="J18" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>27</v>
       </c>
@@ -1169,8 +1281,13 @@
       <c r="H19" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" s="5"/>
+      <c r="J19" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>28</v>
       </c>
@@ -1195,8 +1312,13 @@
       <c r="H20" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" s="5"/>
+      <c r="J20" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>29</v>
       </c>
@@ -1221,8 +1343,13 @@
       <c r="H21" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21" s="5"/>
+      <c r="J21" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>30</v>
       </c>
@@ -1247,8 +1374,13 @@
       <c r="H22" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22" s="5"/>
+      <c r="J22" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>31</v>
       </c>
@@ -1273,8 +1405,13 @@
       <c r="H23" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23" s="5"/>
+      <c r="J23" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>32</v>
       </c>
@@ -1299,8 +1436,13 @@
       <c r="H24" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24" s="5"/>
+      <c r="J24" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>33</v>
       </c>
@@ -1325,8 +1467,13 @@
       <c r="H25" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25" s="5"/>
+      <c r="J25" s="5">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>35</v>
       </c>
@@ -1351,8 +1498,13 @@
       <c r="H26" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26" s="5"/>
+      <c r="J26" s="5">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>36</v>
       </c>
@@ -1377,8 +1529,13 @@
       <c r="H27" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27" s="5"/>
+      <c r="J27" s="5">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>37</v>
       </c>
@@ -1403,8 +1560,13 @@
       <c r="H28" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28" s="5"/>
+      <c r="J28" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>38</v>
       </c>
@@ -1429,8 +1591,13 @@
       <c r="H29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29" s="5"/>
+      <c r="J29" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>39</v>
       </c>
@@ -1455,8 +1622,13 @@
       <c r="H30" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30" s="5"/>
+      <c r="J30" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>40</v>
       </c>
@@ -1481,8 +1653,13 @@
       <c r="H31" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I31" s="5"/>
+      <c r="J31" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>41</v>
       </c>
@@ -1507,8 +1684,13 @@
       <c r="H32" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I32" s="5"/>
+      <c r="J32" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>42</v>
       </c>
@@ -1533,8 +1715,13 @@
       <c r="H33" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33" s="5"/>
+      <c r="J33" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>43</v>
       </c>
@@ -1559,8 +1746,13 @@
       <c r="H34" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I34" s="5"/>
+      <c r="J34" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>44</v>
       </c>
@@ -1585,8 +1777,13 @@
       <c r="H35" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I35" s="5"/>
+      <c r="J35" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>45</v>
       </c>
@@ -1611,8 +1808,13 @@
       <c r="H36" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I36" s="5"/>
+      <c r="J36" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>46</v>
       </c>
@@ -1637,8 +1839,13 @@
       <c r="H37" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I37" s="5"/>
+      <c r="J37" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>47</v>
       </c>
@@ -1663,8 +1870,13 @@
       <c r="H38" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I38" s="5"/>
+      <c r="J38" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>48</v>
       </c>
@@ -1689,8 +1901,13 @@
       <c r="H39" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I39" s="5"/>
+      <c r="J39" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>49</v>
       </c>
@@ -1715,8 +1932,13 @@
       <c r="H40" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I40" s="5"/>
+      <c r="J40" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>50</v>
       </c>
@@ -1741,8 +1963,13 @@
       <c r="H41" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I41" s="5"/>
+      <c r="J41" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>51</v>
       </c>
@@ -1767,8 +1994,13 @@
       <c r="H42" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I42" s="5"/>
+      <c r="J42" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>52</v>
       </c>
@@ -1793,8 +2025,13 @@
       <c r="H43" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I43" s="5"/>
+      <c r="J43" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>53</v>
       </c>
@@ -1819,8 +2056,13 @@
       <c r="H44" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I44" s="5"/>
+      <c r="J44" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>54</v>
       </c>
@@ -1845,8 +2087,13 @@
       <c r="H45" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I45" s="5"/>
+      <c r="J45" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>55</v>
       </c>
@@ -1871,8 +2118,13 @@
       <c r="H46" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I46" s="5"/>
+      <c r="J46" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>56</v>
       </c>
@@ -1897,8 +2149,13 @@
       <c r="H47" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I47" s="5"/>
+      <c r="J47" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>57</v>
       </c>
@@ -1923,8 +2180,13 @@
       <c r="H48" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I48" s="5"/>
+      <c r="J48" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>58</v>
       </c>
@@ -1949,8 +2211,13 @@
       <c r="H49" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I49" s="5"/>
+      <c r="J49" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>59</v>
       </c>
@@ -1975,8 +2242,13 @@
       <c r="H50" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I50" s="5"/>
+      <c r="J50" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>60</v>
       </c>
@@ -2001,8 +2273,13 @@
       <c r="H51" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I51" s="5"/>
+      <c r="J51" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>61</v>
       </c>
@@ -2027,8 +2304,13 @@
       <c r="H52" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I52" s="5"/>
+      <c r="J52" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>62</v>
       </c>
@@ -2053,8 +2335,13 @@
       <c r="H53" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I53" s="5"/>
+      <c r="J53" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>63</v>
       </c>
@@ -2079,8 +2366,13 @@
       <c r="H54" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I54" s="5"/>
+      <c r="J54" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>64</v>
       </c>
@@ -2105,8 +2397,13 @@
       <c r="H55" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I55" s="5"/>
+      <c r="J55" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>65</v>
       </c>
@@ -2131,8 +2428,13 @@
       <c r="H56" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I56" s="5"/>
+      <c r="J56" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>66</v>
       </c>
@@ -2157,8 +2459,13 @@
       <c r="H57" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I57" s="5"/>
+      <c r="J57" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>67</v>
       </c>
@@ -2183,8 +2490,13 @@
       <c r="H58" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I58" s="5"/>
+      <c r="J58" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>68</v>
       </c>
@@ -2209,8 +2521,13 @@
       <c r="H59" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I59" s="5"/>
+      <c r="J59" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>69</v>
       </c>
@@ -2235,8 +2552,13 @@
       <c r="H60" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I60" s="5"/>
+      <c r="J60" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>70</v>
       </c>
@@ -2261,8 +2583,13 @@
       <c r="H61" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I61" s="5"/>
+      <c r="J61" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>71</v>
       </c>
@@ -2287,8 +2614,13 @@
       <c r="H62" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I62" s="5"/>
+      <c r="J62" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>72</v>
       </c>
@@ -2313,8 +2645,13 @@
       <c r="H63" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I63" s="5"/>
+      <c r="J63" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>73</v>
       </c>
@@ -2339,8 +2676,13 @@
       <c r="H64" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I64" s="5"/>
+      <c r="J64" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>74</v>
       </c>
@@ -2365,8 +2707,13 @@
       <c r="H65" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I65" s="5"/>
+      <c r="J65" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>75</v>
       </c>
@@ -2391,8 +2738,13 @@
       <c r="H66" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I66" s="5"/>
+      <c r="J66" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>76</v>
       </c>
@@ -2417,8 +2769,13 @@
       <c r="H67" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I67" s="5"/>
+      <c r="J67" s="5">
+        <f t="shared" ref="J67:J76" si="1">F67/4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>77</v>
       </c>
@@ -2443,8 +2800,13 @@
       <c r="H68" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I68" s="5"/>
+      <c r="J68" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>78</v>
       </c>
@@ -2469,8 +2831,13 @@
       <c r="H69" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I69" s="5"/>
+      <c r="J69" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>79</v>
       </c>
@@ -2495,8 +2862,13 @@
       <c r="H70" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I70" s="5"/>
+      <c r="J70" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>80</v>
       </c>
@@ -2521,8 +2893,13 @@
       <c r="H71" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I71" s="5"/>
+      <c r="J71" s="5">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>82</v>
       </c>
@@ -2547,8 +2924,13 @@
       <c r="H72" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I72" s="5"/>
+      <c r="J72" s="5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>83</v>
       </c>
@@ -2573,8 +2955,13 @@
       <c r="H73" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I73" s="5"/>
+      <c r="J73" s="5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>84</v>
       </c>
@@ -2599,8 +2986,13 @@
       <c r="H74" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I74" s="5"/>
+      <c r="J74" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>85</v>
       </c>
@@ -2625,8 +3017,13 @@
       <c r="H75" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I75" s="5"/>
+      <c r="J75" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>86</v>
       </c>
@@ -2651,8 +3048,14 @@
       <c r="H76" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="I76" s="5"/>
+      <c r="J76" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>